--- a/biology/Médecine/Sensei_(chirurgie)/Sensei_(chirurgie).xlsx
+++ b/biology/Médecine/Sensei_(chirurgie)/Sensei_(chirurgie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un Sensei est un robot médical, et plus précisément une machine dirigée par un opérateur spécialisé en cardiologie interventionnelle pour traiter les troubles du rythme[1]. Il est fabriqué par Hansen Medical (en). Plus de 100 exemplaires avaient été vendus fin 2011, dont trois en France[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un Sensei est un robot médical, et plus précisément une machine dirigée par un opérateur spécialisé en cardiologie interventionnelle pour traiter les troubles du rythme. Il est fabriqué par Hansen Medical (en). Plus de 100 exemplaires avaient été vendus fin 2011, dont trois en France.
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'autorisation par la FDA
-En 2007, la Food and Drug Administration (FDA) autorise l'utilisation du Sensei aux États-Unis[réf. souhaitée].
+          <t>L'autorisation par la FDA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2007, la Food and Drug Administration (FDA) autorise l'utilisation du Sensei aux États-Unis[réf. souhaitée].
 </t>
         </is>
       </c>
